--- a/manual test cases/shopizer_TestCases_User Dashboard_AyanShaikh.xlsx
+++ b/manual test cases/shopizer_TestCases_User Dashboard_AyanShaikh.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\manual test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08A5AA-AD05-45E7-8D4F-067475745F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3412647-2BA5-4C38-AE73-680EC949C468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sc_id</t>
   </si>
@@ -92,187 +91,6 @@
   <si>
     <t>1 Check CHANGE ADDRESS button functionality 
 2 Check CHANGE PASSWORD button functionality</t>
-  </si>
-  <si>
-    <t>Tc_id</t>
-  </si>
-  <si>
-    <t>Tc_Objective</t>
-  </si>
-  <si>
-    <t>Step Number</t>
-  </si>
-  <si>
-    <t>Step Description</t>
-  </si>
-  <si>
-    <t>Input data</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>SC_01_TC_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify My Account Link working or not </t>
-  </si>
-  <si>
-    <t>1.User must have a mobile or computer
-2.User must have a proper internet connection
-3.User must be on the User Dashboard of the shopizer</t>
-  </si>
-  <si>
-    <t>Click on the My Account link present on Dashboard</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>User should be navigated to Dashboard.If user is already on dashboard page it should stay on the same page</t>
-  </si>
-  <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SC_01_TC_02</t>
-  </si>
-  <si>
-    <t>To Verify Billing And Shipping Information Link working or not</t>
-  </si>
-  <si>
-    <t>Click on the  Billing And Shipping link present on Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to see Billing and Shipping information. </t>
-  </si>
-  <si>
-    <t>SC_01_TC_03</t>
-  </si>
-  <si>
-    <t>To verify Change Password feature  working properly or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.User must have a mobile or computer
-2.User must have a proper internet connection
-3.User must be on the User Dashboard of the shopizer
-</t>
-  </si>
-  <si>
-    <t>Click on the Change Password link present on Dashboard</t>
-  </si>
-  <si>
-    <t>New Window related to changing password should be opened</t>
-  </si>
-  <si>
-    <t>SC_01_TC_04</t>
-  </si>
-  <si>
-    <t>To verify Edit Current Address   working or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.User must have a mobile or computer
-2.User must have a proper internet connection
-3.User must be on the User Dashboard of the shopizer</t>
-  </si>
-  <si>
-    <t>1
-2</t>
-  </si>
-  <si>
-    <t>Click on the  Billing And Shipping link present on Dashboard
-Click on edit link</t>
-  </si>
-  <si>
-    <t>New Window Related to editing Address information should be opened</t>
-  </si>
-  <si>
-    <t>SC_01_TC_06</t>
-  </si>
-  <si>
-    <t>To verify Logout link working or not</t>
-  </si>
-  <si>
-    <t>Click on the Logout link present on Dashboard</t>
-  </si>
-  <si>
-    <t>After Logout user should be redirected to home page</t>
-  </si>
-  <si>
-    <t>SC_01_TC_07</t>
-  </si>
-  <si>
-    <t>To verify Recent orders link working or not</t>
-  </si>
-  <si>
-    <t>Click on the Recent orders link present on Dashboard</t>
-  </si>
-  <si>
-    <t>User should be able to see past purchases</t>
-  </si>
-  <si>
-    <t>SC_02_TC_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify CHANGE ADDRESS button functionality </t>
-  </si>
-  <si>
-    <t>1
-2
-3</t>
-  </si>
-  <si>
-    <t>Click on the  Billing And Shipping link present on Dashboard 
-Click on edit link 
-Enter all the necessary information click on the CHANGE ADDRESS button</t>
-  </si>
-  <si>
-    <t>User should be able to Edit/add new address .</t>
-  </si>
-  <si>
-    <t>SC_02_TC_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Verify CHANGE PASSWORD button functionality </t>
-  </si>
-  <si>
-    <t>Click on the  Billing And Shipping link present on Dashboard 
-Click on edit link 
-Enter all the necessary information click on the CHANGE PASSWORD button</t>
-  </si>
-  <si>
-    <t>User should be able to Change current password.</t>
-  </si>
-  <si>
-    <t>Automate</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>User is not able to see the past/current orders</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>User is unable to place orders</t>
   </si>
 </sst>
 </file>
@@ -303,21 +121,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -325,26 +137,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,26 +152,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,19 +473,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -708,19 +493,19 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -734,331 +519,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.1796875" style="6"/>
-    <col min="2" max="2" width="18.7265625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24" style="6" customWidth="1"/>
-    <col min="9" max="9" width="25" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
-    </row>
-    <row r="12" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="145" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="145" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1066,15 +526,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F4261C012905A7429EEAE0175F0B308C" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a1668bd45395aa4e7106fcf958f3064b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9465699d-b859-4ad6-ab8c-507a684d99d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f77472e7f07b26b0133d681acc3c98c" ns2:_="">
     <xsd:import namespace="9465699d-b859-4ad6-ab8c-507a684d99d6"/>
@@ -1238,6 +689,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
   <ds:schemaRefs>
@@ -1248,14 +708,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5E8A97-2FC6-4915-86D4-7EFA9EC0D8AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1271,4 +723,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>